--- a/figures/UPWA comparison.xlsx
+++ b/figures/UPWA comparison.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\cs236779 - Big Data Algorithms\figures\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{158CE2D7-6056-4888-BD8F-FDEC31922F3D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96688DD2-F29D-440A-8A48-6E9ED412521A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="33870" yWindow="4560" windowWidth="21600" windowHeight="11385" xr2:uid="{EA36D9C1-6147-43CF-A3DD-A878282809CE}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{EA36D9C1-6147-43CF-A3DD-A878282809CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -127,9 +127,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Our implementation</a:t>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Our UPWA implementation</a:t>
             </a:r>
+            <a:endParaRPr lang="en-IL">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -240,22 +245,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.93126444256636698</c:v>
+                  <c:v>0.93652320986596405</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.85136544653123303</c:v>
+                  <c:v>0.85453277366002001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.79919864598732304</c:v>
+                  <c:v>0.82549456087093298</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>0.78539438422722696</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81356969999110995</c:v>
+                  <c:v>0.80274551703018504</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.80792101291299301</c:v>
+                  <c:v>0.76448909258642095</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -395,6 +400,7 @@
         <c:axId val="668256576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.60000000000000009"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1431,7 +1437,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1452,7 +1458,7 @@
         <v>2</v>
       </c>
       <c r="B2">
-        <v>0.93126444256636698</v>
+        <v>0.93652320986596405</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -1460,7 +1466,7 @@
         <v>3</v>
       </c>
       <c r="B3">
-        <v>0.85136544653123303</v>
+        <v>0.85453277366002001</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1468,7 +1474,7 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>0.79919864598732304</v>
+        <v>0.82549456087093298</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1484,7 +1490,7 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>0.81356969999110995</v>
+        <v>0.80274551703018504</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1492,7 +1498,7 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>0.80792101291299301</v>
+        <v>0.76448909258642095</v>
       </c>
     </row>
   </sheetData>
